--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/15/seed1/result_data_RandomForest.xlsx
@@ -496,10 +496,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.07709999999999</v>
+        <v>-21.08550000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>4.942400000000003</v>
+        <v>4.942300000000007</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.456899999999997</v>
+        <v>5.273399999999999</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.2901</v>
+        <v>-21.35290000000001</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.46040000000001</v>
+        <v>-21.531</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.922299999999999</v>
+        <v>5.1273</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.59580000000002</v>
+        <v>-21.60510000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>4.755600000000004</v>
+        <v>4.810500000000002</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.20680000000002</v>
+        <v>-22.12060000000003</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.413300000000003</v>
+        <v>5.189900000000005</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
